--- a/ML/Classification comparison/comparison table.xlsx
+++ b/ML/Classification comparison/comparison table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1fe85421421809a7/Desktop/Coding/Academic/ML/Classification comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E24CF2D-5216-4268-8D9D-C2E29FA81D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7E24CF2D-5216-4268-8D9D-C2E29FA81D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5FE7985-FB80-4A4D-AFF8-404D074A4202}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4027F27-43E6-46BE-9329-B19896D5A516}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -63,10 +54,16 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>Multiclass classification (5 classes)</t>
-  </si>
-  <si>
-    <t>Binary classification</t>
+    <t>Multiclass classification (5 classes) Testing data</t>
+  </si>
+  <si>
+    <t>Binary classification Testing data</t>
+  </si>
+  <si>
+    <t>Binary classification Training data</t>
+  </si>
+  <si>
+    <t>Multiclass classification (5 classes) Training data</t>
   </si>
 </sst>
 </file>
@@ -118,10 +115,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -438,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B439DB4-8D07-4EC0-9C50-959A84DC29F6}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,20 +451,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -506,31 +503,31 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="C3" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D3" s="2">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="I3" s="2">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="J3" s="2">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="K3" s="2">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -538,31 +535,31 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="C4" s="2">
         <v>0.75</v>
       </c>
       <c r="D4" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.74</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.68</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="2">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="I4" s="2">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="J4" s="2">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="K4" s="2">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -570,31 +567,31 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="C5" s="2">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="D5" s="2">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="E5" s="2">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="I5" s="2">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="J5" s="2">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="K5" s="2">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -602,37 +599,215 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="C6" s="2">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="D6" s="2">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="E6" s="2">
-        <v>0.81</v>
+        <v>0.99</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.86</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I10" s="2">
         <v>0.88</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J10" s="2">
         <v>0.76</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K10" s="2">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="K13" s="2">
         <v>0.79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
